--- a/owlcms/src/test/resources/testData/IWF Records.xlsx
+++ b/owlcms/src/test/resources/testData/IWF Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F70FC1-BB89-48FC-9C72-580151D69EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EFF34-B712-40BC-8202-0C67C129F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World SR M" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="137">
   <si>
     <t>Snatch</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Bucharest</t>
-  </si>
-  <si>
-    <t>WORLD</t>
   </si>
   <si>
     <t>Lift</t>
@@ -833,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEB142-1202-4A14-BA22-239124B7DE48}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B3:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,31 +850,31 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -900,16 +897,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -934,16 +931,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -958,7 +955,7 @@
         <v>166</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="8">
         <v>33560</v>
@@ -970,21 +967,21 @@
         <v>43726</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -999,7 +996,7 @@
         <v>294</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="8">
         <v>33560</v>
@@ -1011,21 +1008,21 @@
         <v>43726</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1040,33 +1037,33 @@
         <v>145</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="8">
         <v>33984</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="8">
         <v>43727</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1081,7 +1078,7 @@
         <v>174</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="8">
         <v>32713</v>
@@ -1098,16 +1095,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1122,33 +1119,33 @@
         <v>318</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="8">
         <v>33984</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="8">
         <v>43727</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1163,33 +1160,33 @@
         <v>155</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="8">
         <v>33837</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="8">
         <v>43652</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1204,7 +1201,7 @@
         <v>188</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="8">
         <v>35503</v>
@@ -1216,21 +1213,21 @@
         <v>43728</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1245,33 +1242,33 @@
         <v>339</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="8">
         <v>34008</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="8">
         <v>43576</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1286,33 +1283,33 @@
         <v>168</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="8">
         <v>34252</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" s="8">
         <v>43577</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1327,33 +1324,33 @@
         <v>198</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L12" s="8">
         <v>34252</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" s="8">
         <v>43809</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1368,33 +1365,33 @@
         <v>363</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" s="8">
         <v>34252</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" s="8">
         <v>43729</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1409,13 +1406,13 @@
         <v>173</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" s="8">
         <v>32833</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="8">
         <v>43409</v>
@@ -1426,16 +1423,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1450,33 +1447,33 @@
         <v>207</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15" s="8">
         <v>30890</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="8">
         <v>43730</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1491,33 +1488,33 @@
         <v>378</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" s="8">
         <v>30890</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="8">
         <v>43730</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1542,16 +1539,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1576,16 +1573,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1610,16 +1607,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1634,7 +1631,7 @@
         <v>186</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20" s="8">
         <v>32408</v>
@@ -1651,16 +1648,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1675,33 +1672,33 @@
         <v>231</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L21" s="8">
         <v>34432</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" s="8">
         <v>43653</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1716,7 +1713,7 @@
         <v>416</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L22" s="8">
         <v>32408</v>
@@ -1733,16 +1730,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1767,16 +1764,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1801,16 +1798,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1835,16 +1832,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1859,7 +1856,7 @@
         <v>199</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="8">
         <v>35478</v>
@@ -1871,21 +1868,21 @@
         <v>43734</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1900,7 +1897,7 @@
         <v>240</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L27" s="8">
         <v>35478</v>
@@ -1917,16 +1914,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1941,7 +1938,7 @@
         <v>435</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L28" s="8">
         <v>35478</v>
@@ -1958,16 +1955,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1982,33 +1979,33 @@
         <v>220</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="8">
         <v>34244</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" s="8">
         <v>43735</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2023,33 +2020,33 @@
         <v>264</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="8">
         <v>34244</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N30" s="8">
         <v>43735</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2064,19 +2061,19 @@
         <v>484</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="8">
         <v>34244</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N31" s="8">
         <v>43735</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2106,31 +2103,31 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -2153,16 +2150,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2187,16 +2184,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2221,16 +2218,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2255,16 +2252,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2279,33 +2276,33 @@
         <v>95</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" s="8">
         <v>35507</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="8">
         <v>43652</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2320,33 +2317,33 @@
         <v>118</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="8">
         <v>35817</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="8">
         <v>43727</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2361,33 +2358,33 @@
         <v>212</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="8">
         <v>35817</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="8">
         <v>43727</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2402,13 +2399,13 @@
         <v>102</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="8">
         <v>34086</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="8">
         <v>43407</v>
@@ -2419,16 +2416,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2443,33 +2440,33 @@
         <v>129</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="8">
         <v>34893</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N9" s="8">
         <v>43728</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2484,33 +2481,33 @@
         <v>227</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="8">
         <v>34893</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="8">
         <v>43728</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2525,7 +2522,7 @@
         <v>107</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="8">
         <v>34308</v>
@@ -2537,21 +2534,21 @@
         <v>43729</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2566,33 +2563,33 @@
         <v>140</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="8">
         <v>34299</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N12" s="8">
         <v>43729</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2607,33 +2604,33 @@
         <v>246</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" s="8">
         <v>34299</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N13" s="8">
         <v>43729</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2648,33 +2645,33 @@
         <v>117</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="8">
         <v>34014</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="8">
         <v>43810</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2689,33 +2686,33 @@
         <v>145</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" s="8">
         <v>34014</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="8">
         <v>43730</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2730,33 +2727,33 @@
         <v>261</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="8">
         <v>34014</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="8">
         <v>43730</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2781,16 +2778,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2805,13 +2802,13 @@
         <v>152</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" s="8">
         <v>35212</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N18" s="8">
         <v>43410</v>
@@ -2822,16 +2819,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2846,13 +2843,13 @@
         <v>267</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="8">
         <v>35212</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N19" s="8">
         <v>43410</v>
@@ -2863,16 +2860,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2887,7 +2884,7 @@
         <v>124</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="8">
         <v>34005</v>
@@ -2899,21 +2896,21 @@
         <v>43732</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2928,33 +2925,33 @@
         <v>156</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L21" s="8">
         <v>35212</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" s="8">
         <v>43522</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2969,7 +2966,7 @@
         <v>278</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="8">
         <v>34005</v>
@@ -2981,21 +2978,21 @@
         <v>43581</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3020,16 +3017,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3054,16 +3051,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3088,16 +3085,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3122,16 +3119,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3156,16 +3153,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3190,16 +3187,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3214,33 +3211,33 @@
         <v>147</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="8">
         <v>36590</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N29" s="8">
         <v>43583</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3255,33 +3252,33 @@
         <v>186</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="8">
         <v>36590</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N30" s="8">
         <v>43735</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3296,19 +3293,19 @@
         <v>332</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L31" s="8">
         <v>36590</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="8">
         <v>43735</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3320,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C271524-7B62-4275-80F4-B7566E9FA760}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,31 +3335,31 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -3385,16 +3382,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3419,16 +3416,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3453,16 +3450,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3487,16 +3484,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3511,13 +3508,13 @@
         <v>136</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" s="8">
         <v>36231</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="8">
         <v>43407</v>
@@ -3528,16 +3525,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3552,7 +3549,7 @@
         <v>159</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="8">
         <v>36328</v>
@@ -3569,16 +3566,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3593,13 +3590,13 @@
         <v>293</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="8">
         <v>36231</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="8">
         <v>43407</v>
@@ -3610,16 +3607,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3634,33 +3631,33 @@
         <v>146</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="8">
         <v>36231</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="8">
         <v>43728</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3675,33 +3672,33 @@
         <v>182</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="8">
         <v>36231</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="8">
         <v>43728</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3716,33 +3713,33 @@
         <v>328</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="8">
         <v>36231</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="8">
         <v>43728</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3757,33 +3754,33 @@
         <v>154</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="8">
         <v>36683</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N11" s="8">
         <v>43643</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3798,33 +3795,33 @@
         <v>193</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12" s="8">
         <v>36683</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="8">
         <v>43643</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3839,33 +3836,33 @@
         <v>347</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="8">
         <v>36683</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="8">
         <v>43643</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3880,13 +3877,13 @@
         <v>168</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="8">
         <v>35838</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="8">
         <v>43409</v>
@@ -3897,16 +3894,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3921,13 +3918,13 @@
         <v>204</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="8">
         <v>35838</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="8">
         <v>43409</v>
@@ -3938,16 +3935,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3962,13 +3959,13 @@
         <v>372</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="8">
         <v>35838</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="8">
         <v>43409</v>
@@ -3979,16 +3976,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -4003,7 +4000,7 @@
         <v>170</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="8">
         <v>36292</v>
@@ -4020,16 +4017,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -4044,13 +4041,13 @@
         <v>204</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="8">
         <v>36441</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" s="8">
         <v>43410</v>
@@ -4061,16 +4058,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -4085,13 +4082,13 @@
         <v>371</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="8">
         <v>36084</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="8">
         <v>43410</v>
@@ -4102,16 +4099,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4126,7 +4123,7 @@
         <v>180</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="8">
         <v>36103</v>
@@ -4143,16 +4140,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -4167,13 +4164,13 @@
         <v>225</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L21" s="8">
         <v>35950</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="8">
         <v>43455</v>
@@ -4184,16 +4181,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -4208,13 +4205,13 @@
         <v>397</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="8">
         <v>35950</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="8">
         <v>43455</v>
@@ -4225,16 +4222,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -4249,13 +4246,13 @@
         <v>180</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="8">
         <v>36441</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="8">
         <v>43412</v>
@@ -4266,16 +4263,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -4300,16 +4297,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -4324,13 +4321,13 @@
         <v>392</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="8">
         <v>36441</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" s="8">
         <v>43412</v>
@@ -4341,16 +4338,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -4365,33 +4362,33 @@
         <v>188</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L26" s="8">
         <v>36441</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N26" s="8">
         <v>43734</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -4406,33 +4403,33 @@
         <v>229</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="8">
         <v>36441</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N27" s="8">
         <v>43734</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -4447,33 +4444,33 @@
         <v>417</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="8">
         <v>36441</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N28" s="8">
         <v>43734</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -4488,7 +4485,7 @@
         <v>197</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="8">
         <v>36241</v>
@@ -4505,16 +4502,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4529,7 +4526,7 @@
         <v>237</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="8">
         <v>36241</v>
@@ -4541,21 +4538,21 @@
         <v>43583</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -4570,7 +4567,7 @@
         <v>432</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="8">
         <v>36241</v>
@@ -4582,7 +4579,7 @@
         <v>43583</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4595,7 +4592,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,31 +4609,31 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -4659,16 +4656,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4693,16 +4690,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4717,13 +4714,13 @@
         <v>104</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="8">
         <v>35907</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="8">
         <v>43406</v>
@@ -4734,16 +4731,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4758,13 +4755,13 @@
         <v>179</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="8">
         <v>35907</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="8">
         <v>43406</v>
@@ -4775,16 +4772,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4799,13 +4796,13 @@
         <v>92</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="8">
         <v>35817</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="8">
         <v>43407</v>
@@ -4816,16 +4813,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4840,13 +4837,13 @@
         <v>114</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="8">
         <v>35817</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="8">
         <v>43407</v>
@@ -4857,16 +4854,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4881,13 +4878,13 @@
         <v>206</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="8">
         <v>35817</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="8">
         <v>43407</v>
@@ -4898,16 +4895,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4922,13 +4919,13 @@
         <v>97</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="8">
         <v>35920</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="8">
         <v>43407</v>
@@ -4939,16 +4936,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4963,7 +4960,7 @@
         <v>117</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="8">
         <v>36746</v>
@@ -4980,16 +4977,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5004,13 +5001,13 @@
         <v>211</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="8">
         <v>35920</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="8">
         <v>43407</v>
@@ -5021,16 +5018,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -5045,33 +5042,33 @@
         <v>104</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="8">
         <v>36478</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" s="8">
         <v>43504</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5086,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="8">
         <v>37829</v>
@@ -5103,16 +5100,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5127,7 +5124,7 @@
         <v>228</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="8">
         <v>37829</v>
@@ -5144,16 +5141,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5168,33 +5165,33 @@
         <v>107</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="8">
         <v>36176</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="8">
         <v>43771</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5209,33 +5206,33 @@
         <v>135</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="8">
         <v>36176</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="8">
         <v>43504</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -5250,33 +5247,33 @@
         <v>240</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="8">
         <v>36176</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="8">
         <v>43504</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5291,33 +5288,33 @@
         <v>112</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="8">
         <v>36165</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17" s="8">
         <v>43731</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5332,13 +5329,13 @@
         <v>141</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="8">
         <v>35796</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18" s="8">
         <v>43410</v>
@@ -5349,16 +5346,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5373,13 +5370,13 @@
         <v>252</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19" s="8">
         <v>35796</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N19" s="8">
         <v>43410</v>
@@ -5390,16 +5387,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5414,13 +5411,13 @@
         <v>117</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="8">
         <v>35927</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N20" s="8">
         <v>43411</v>
@@ -5431,16 +5428,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5455,13 +5452,13 @@
         <v>142</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="8">
         <v>35927</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N21" s="8">
         <v>43411</v>
@@ -5472,16 +5469,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5496,13 +5493,13 @@
         <v>259</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="8">
         <v>35927</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="8">
         <v>43411</v>
@@ -5513,16 +5510,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5547,16 +5544,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5571,33 +5568,33 @@
         <v>150</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="8">
         <v>36421</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="8">
         <v>43811</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -5612,33 +5609,33 @@
         <v>260</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="8">
         <v>36421</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25" s="8">
         <v>43811</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5663,16 +5660,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5687,33 +5684,33 @@
         <v>151</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="8">
         <v>36421</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" s="8">
         <v>43779</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5738,16 +5735,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5762,33 +5759,33 @@
         <v>147</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="8">
         <v>36590</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N29" s="8">
         <v>43583</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5803,33 +5800,33 @@
         <v>186</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="8">
         <v>36590</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N30" s="8">
         <v>43735</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5844,19 +5841,19 @@
         <v>332</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="8">
         <v>36590</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="8">
         <v>43735</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5869,7 +5866,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,31 +5885,31 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>1</v>
@@ -5935,13 +5932,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="6">
         <v>49</v>
@@ -5970,13 +5970,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="6">
         <v>49</v>
@@ -6005,13 +6008,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="6">
         <v>49</v>
@@ -6040,13 +6046,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="6">
         <v>55</v>
@@ -6075,13 +6084,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="6">
         <v>55</v>
@@ -6110,13 +6122,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="6">
         <v>55</v>
@@ -6145,13 +6160,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="6">
         <v>61</v>
@@ -6180,13 +6198,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="6">
         <v>61</v>
@@ -6215,13 +6236,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="6">
         <v>61</v>
@@ -6250,13 +6274,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="6">
         <v>67</v>
@@ -6285,13 +6312,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="6">
         <v>67</v>
@@ -6320,13 +6350,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="6">
         <v>67</v>
@@ -6355,13 +6388,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="6">
         <v>73</v>
@@ -6390,13 +6426,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="6">
         <v>73</v>
@@ -6418,13 +6457,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="6">
         <v>73</v>
@@ -6453,13 +6495,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" s="6">
         <v>81</v>
@@ -6481,13 +6526,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="6">
         <v>81</v>
@@ -6509,13 +6557,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="6">
         <v>81</v>
@@ -6537,13 +6588,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="6">
         <v>89</v>
@@ -6572,13 +6626,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="6">
         <v>89</v>
@@ -6607,13 +6664,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="6">
         <v>89</v>
@@ -6642,13 +6702,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" s="6">
         <v>96</v>
@@ -6677,13 +6740,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="6">
         <v>96</v>
@@ -6712,13 +6778,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="6">
         <v>96</v>
@@ -6747,13 +6816,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="6">
         <v>102</v>
@@ -6782,13 +6854,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="6">
         <v>102</v>
@@ -6817,13 +6892,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="6">
         <v>102</v>
@@ -6852,13 +6930,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="6">
         <v>999</v>
@@ -6887,13 +6968,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="6">
         <v>999</v>
@@ -6922,13 +7006,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="6">
         <v>999</v>
@@ -6967,7 +7054,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,31 +7073,31 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -7033,13 +7120,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="6">
         <v>40</v>
@@ -7061,13 +7151,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="6">
         <v>40</v>
@@ -7089,13 +7182,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="6">
         <v>40</v>
@@ -7117,13 +7213,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="6">
         <v>45</v>
@@ -7135,7 +7234,7 @@
         <v>77</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="8">
         <v>38063</v>
@@ -7152,13 +7251,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="6">
         <v>45</v>
@@ -7170,7 +7272,7 @@
         <v>95</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="8">
         <v>38063</v>
@@ -7187,13 +7289,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="6">
         <v>45</v>
@@ -7205,7 +7310,7 @@
         <v>172</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="8">
         <v>38063</v>
@@ -7222,13 +7327,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="6">
         <v>49</v>
@@ -7240,7 +7348,7 @@
         <v>86</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="8">
         <v>37418</v>
@@ -7252,18 +7360,21 @@
         <v>43801</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="6">
         <v>49</v>
@@ -7275,7 +7386,7 @@
         <v>104</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="8">
         <v>37418</v>
@@ -7287,18 +7398,21 @@
         <v>43801</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="6">
         <v>49</v>
@@ -7310,7 +7424,7 @@
         <v>190</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="8">
         <v>37418</v>
@@ -7322,18 +7436,21 @@
         <v>43801</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6">
         <v>55</v>
@@ -7345,13 +7462,13 @@
         <v>88</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="8">
         <v>37303</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="8">
         <v>43809</v>
@@ -7362,13 +7479,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="6">
         <v>55</v>
@@ -7380,7 +7500,7 @@
         <v>110</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="8">
         <v>37933</v>
@@ -7397,13 +7517,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="6">
         <v>55</v>
@@ -7415,7 +7538,7 @@
         <v>197</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="8">
         <v>37933</v>
@@ -7432,13 +7555,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="6">
         <v>59</v>
@@ -7450,7 +7576,7 @@
         <v>99</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="8">
         <v>37829</v>
@@ -7467,13 +7593,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="6">
         <v>59</v>
@@ -7485,7 +7614,7 @@
         <v>129</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="8">
         <v>37829</v>
@@ -7502,13 +7631,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="6">
         <v>59</v>
@@ -7520,7 +7652,7 @@
         <v>228</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="8">
         <v>37829</v>
@@ -7537,13 +7669,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="6">
         <v>64</v>
@@ -7555,30 +7690,33 @@
         <v>98</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="8">
         <v>37276</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="8">
         <v>43771</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="6">
         <v>64</v>
@@ -7590,13 +7728,13 @@
         <v>125</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="8">
         <v>37276</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="8">
         <v>43762</v>
@@ -7607,13 +7745,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="6">
         <v>64</v>
@@ -7625,13 +7766,13 @@
         <v>222</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L19" s="8">
         <v>37276</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="8">
         <v>43762</v>
@@ -7642,13 +7783,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="6">
         <v>71</v>
@@ -7670,13 +7814,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="6">
         <v>71</v>
@@ -7698,13 +7845,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="6">
         <v>71</v>
@@ -7726,13 +7876,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="6">
         <v>76</v>
@@ -7744,13 +7897,13 @@
         <v>105</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="8">
         <v>37319</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="8">
         <v>43763</v>
@@ -7761,13 +7914,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" s="6">
         <v>76</v>
@@ -7779,7 +7935,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" s="8">
         <v>37332</v>
@@ -7796,13 +7952,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="6">
         <v>76</v>
@@ -7824,13 +7983,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="6">
         <v>81</v>
@@ -7852,13 +8014,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="6">
         <v>81</v>
@@ -7880,13 +8045,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" s="6">
         <v>81</v>
@@ -7908,13 +8076,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="6">
         <v>999</v>
@@ -7926,13 +8097,13 @@
         <v>110</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L29" s="8">
         <v>37692</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N29" s="8">
         <v>43765</v>
@@ -7943,13 +8114,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="6">
         <v>999</v>
@@ -7961,13 +8135,13 @@
         <v>145</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L30" s="8">
         <v>37692</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N30" s="8">
         <v>43765</v>
@@ -7978,13 +8152,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="6">
         <v>999</v>
@@ -7996,13 +8173,13 @@
         <v>255</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L31" s="8">
         <v>37692</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N31" s="8">
         <v>43765</v>
